--- a/Datasets/siaya.xlsx
+++ b/Datasets/siaya.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aomondi\Documents\GitHub\ME555\ME555-Design-Optimization-for-Welfare-Economics\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{176A0068-5941-42F0-818A-66427EC5BD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5052755-1AD1-4C2E-BB30-9B8A07AA5284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{33EFABE2-E07B-4C58-82F8-CE36C32F3D30}"/>
   </bookViews>
   <sheets>
     <sheet name="siaya" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">siaya!$A$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -443,10 +446,22 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -486,31 +501,35 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <f ca="1">RANDBETWEEN(46700,70049)</f>
-        <v>47879</v>
+        <v>63365</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(20,5000)</f>
-        <v>1172</v>
+        <v>1686</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(2000,10000)</f>
-        <v>8380</v>
+        <v>3205</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(0,180)</f>
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(720,1080)</f>
-        <v>820</v>
+        <v>761</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(720,1080)</f>
-        <v>954</v>
+        <v>923</v>
+      </c>
+      <c r="G2">
+        <f ca="1">RANDBETWEEN(50,500)</f>
+        <v>105</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(5000,20000)</f>
-        <v>15259</v>
+        <v>15365</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -525,31 +544,35 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A11" ca="1" si="0">RANDBETWEEN(46700,70049)</f>
-        <v>56914</v>
+        <v>55511</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B11" ca="1" si="1">RANDBETWEEN(20,5000)</f>
-        <v>2596</v>
+        <v>209</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C11" ca="1" si="2">RANDBETWEEN(2000,10000)</f>
-        <v>3156</v>
+        <v>6082</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D11" ca="1" si="3">RANDBETWEEN(0,180)</f>
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:F11" ca="1" si="4">RANDBETWEEN(720,1080)</f>
-        <v>852</v>
+        <v>928</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="4"/>
-        <v>936</v>
+        <v>731</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" ca="1" si="5">RANDBETWEEN(50,500)</f>
+        <v>302</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" ca="1" si="5">RANDBETWEEN(5000,20000)</f>
-        <v>6382</v>
+        <f t="shared" ref="H3:H11" ca="1" si="6">RANDBETWEEN(5000,20000)</f>
+        <v>14799</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -564,31 +587,35 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>69555</v>
+        <v>49791</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>2900</v>
+        <v>300</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>2207</v>
+        <v>2654</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="3"/>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="4"/>
-        <v>749</v>
+        <v>938</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="4"/>
-        <v>774</v>
+        <v>853</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="5"/>
+        <v>254</v>
       </c>
       <c r="H4">
-        <f t="shared" ca="1" si="5"/>
-        <v>11767</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7555</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -603,31 +630,35 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>62684</v>
+        <v>47575</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>1254</v>
+        <v>4111</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>3636</v>
+        <v>9253</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="4"/>
-        <v>960</v>
+        <v>863</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="4"/>
-        <v>818</v>
+        <v>777</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="5"/>
+        <v>257</v>
       </c>
       <c r="H5">
-        <f t="shared" ca="1" si="5"/>
-        <v>9660</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6261</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -642,31 +673,35 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>55033</v>
+        <v>68272</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>982</v>
+        <v>2973</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>5305</v>
+        <v>6092</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="4"/>
-        <v>819</v>
+        <v>770</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="4"/>
-        <v>773</v>
+        <v>1058</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="5"/>
+        <v>266</v>
       </c>
       <c r="H6">
-        <f t="shared" ca="1" si="5"/>
-        <v>13931</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>15297</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -681,31 +716,35 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>52762</v>
+        <v>47536</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>2972</v>
+        <v>121</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>3914</v>
+        <v>8044</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="4"/>
-        <v>918</v>
+        <v>733</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="4"/>
-        <v>1016</v>
+        <v>1025</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="5"/>
+        <v>240</v>
       </c>
       <c r="H7">
-        <f t="shared" ca="1" si="5"/>
-        <v>16042</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>14385</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -720,31 +759,35 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>68167</v>
+        <v>51176</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>171</v>
+        <v>3817</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>3879</v>
+        <v>7695</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="4"/>
-        <v>869</v>
+        <v>1051</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="4"/>
-        <v>1066</v>
+        <v>858</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="5"/>
+        <v>401</v>
       </c>
       <c r="H8">
-        <f t="shared" ca="1" si="5"/>
-        <v>8386</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9028</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -759,31 +802,35 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>64783</v>
+        <v>48952</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>4605</v>
+        <v>4454</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>8396</v>
+        <v>2530</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="4"/>
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="4"/>
-        <v>964</v>
+        <v>1041</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="5"/>
+        <v>431</v>
       </c>
       <c r="H9">
-        <f t="shared" ca="1" si="5"/>
-        <v>8319</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8011</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -798,31 +845,35 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>51474</v>
+        <v>69150</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>4131</v>
+        <v>1824</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>8703</v>
+        <v>2086</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="4"/>
-        <v>829</v>
+        <v>1041</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="4"/>
-        <v>808</v>
+        <v>923</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="5"/>
+        <v>290</v>
       </c>
       <c r="H10">
-        <f t="shared" ca="1" si="5"/>
-        <v>13756</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7922</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -837,31 +888,35 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>58009</v>
+        <v>53754</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>3500</v>
+        <v>3107</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>8633</v>
+        <v>4864</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>863</v>
+        <v>1051</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="4"/>
-        <v>1048</v>
+        <v>809</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="5"/>
+        <v>378</v>
       </c>
       <c r="H11">
-        <f t="shared" ca="1" si="5"/>
-        <v>17655</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6664</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -876,31 +931,35 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <f ca="1">RANDBETWEEN(58374,145935)</f>
-        <v>93675</v>
+        <v>75787</v>
       </c>
       <c r="B12">
         <f ca="1">RANDBETWEEN(10000,30000)</f>
-        <v>19586</v>
+        <v>15024</v>
       </c>
       <c r="C12">
         <f ca="1">RANDBETWEEN(15000,50000)</f>
-        <v>37897</v>
+        <v>48195</v>
       </c>
       <c r="D12">
         <f ca="1">RANDBETWEEN(0,720)</f>
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E12">
         <f ca="1">RANDBETWEEN(900,2250)</f>
-        <v>1582</v>
+        <v>1190</v>
       </c>
       <c r="F12">
         <f ca="1">RANDBETWEEN(900,2250)</f>
-        <v>1971</v>
+        <v>1111</v>
+      </c>
+      <c r="G12">
+        <f ca="1">RANDBETWEEN(500,5000)</f>
+        <v>2864</v>
       </c>
       <c r="H12">
         <f ca="1">RANDBETWEEN(20000,100000)</f>
-        <v>47190</v>
+        <v>54919</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -914,32 +973,36 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" ref="A13:A22" ca="1" si="6">RANDBETWEEN(58374,145935)</f>
-        <v>130714</v>
+        <f t="shared" ref="A13:A21" ca="1" si="7">RANDBETWEEN(58374,145935)</f>
+        <v>128933</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B22" ca="1" si="7">RANDBETWEEN(10000,30000)</f>
-        <v>26118</v>
+        <f t="shared" ref="B13:B21" ca="1" si="8">RANDBETWEEN(10000,30000)</f>
+        <v>18409</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C22" ca="1" si="8">RANDBETWEEN(15000,50000)</f>
-        <v>25782</v>
+        <f t="shared" ref="C13:C21" ca="1" si="9">RANDBETWEEN(15000,50000)</f>
+        <v>31453</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D21" ca="1" si="9">RANDBETWEEN(0,720)</f>
-        <v>140</v>
+        <f t="shared" ref="D13:D21" ca="1" si="10">RANDBETWEEN(0,720)</f>
+        <v>346</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:F21" ca="1" si="10">RANDBETWEEN(900,2250)</f>
-        <v>1765</v>
+        <f t="shared" ref="E13:F21" ca="1" si="11">RANDBETWEEN(900,2250)</f>
+        <v>1170</v>
       </c>
       <c r="F13">
-        <f t="shared" ca="1" si="10"/>
-        <v>1647</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2027</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G22" ca="1" si="12">RANDBETWEEN(500,5000)</f>
+        <v>4225</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H22" ca="1" si="11">RANDBETWEEN(20000,100000)</f>
-        <v>30873</v>
+        <f t="shared" ref="H13:H21" ca="1" si="13">RANDBETWEEN(20000,100000)</f>
+        <v>39577</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -953,32 +1016,36 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" ca="1" si="6"/>
-        <v>111710</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>78923</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="7"/>
-        <v>25432</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>18244</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="8"/>
-        <v>45611</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>30263</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="9"/>
-        <v>134</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>541</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="10"/>
-        <v>1807</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1414</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="10"/>
-        <v>996</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1947</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="12"/>
+        <v>934</v>
       </c>
       <c r="H14">
-        <f t="shared" ca="1" si="11"/>
-        <v>56701</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>93504</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -992,32 +1059,36 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" ca="1" si="6"/>
-        <v>114245</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>100108</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="7"/>
-        <v>25242</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>27217</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="8"/>
-        <v>44691</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>31952</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="9"/>
-        <v>204</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>111</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="10"/>
-        <v>919</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1373</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="10"/>
-        <v>1378</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2199</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="12"/>
+        <v>3862</v>
       </c>
       <c r="H15">
-        <f t="shared" ca="1" si="11"/>
-        <v>42631</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>74988</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1031,32 +1102,36 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" ca="1" si="6"/>
-        <v>72067</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>114430</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="7"/>
-        <v>15990</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>22078</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="8"/>
-        <v>36340</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>26102</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="9"/>
-        <v>192</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>61</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="10"/>
-        <v>918</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1441</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="10"/>
-        <v>1869</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1408</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="12"/>
+        <v>1565</v>
       </c>
       <c r="H16">
-        <f t="shared" ca="1" si="11"/>
-        <v>46436</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>93735</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1070,32 +1145,36 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" ca="1" si="6"/>
-        <v>86284</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>113034</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="7"/>
-        <v>10306</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>13788</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="8"/>
-        <v>35018</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>32228</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="9"/>
-        <v>374</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>111</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="10"/>
-        <v>1565</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1942</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="10"/>
-        <v>1248</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1110</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="12"/>
+        <v>1374</v>
       </c>
       <c r="H17">
-        <f t="shared" ca="1" si="11"/>
-        <v>71973</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>45952</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1109,32 +1188,36 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f t="shared" ca="1" si="6"/>
-        <v>137413</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>116332</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="7"/>
-        <v>11739</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>19688</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="8"/>
-        <v>25844</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>48864</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="9"/>
-        <v>524</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>436</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="10"/>
-        <v>1990</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1656</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="10"/>
-        <v>1246</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2076</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="12"/>
+        <v>3165</v>
       </c>
       <c r="H18">
-        <f t="shared" ca="1" si="11"/>
-        <v>69066</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>37734</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1148,32 +1231,36 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" ca="1" si="6"/>
-        <v>131102</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>58445</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="7"/>
-        <v>14573</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>19459</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="8"/>
-        <v>34042</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>39949</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="9"/>
-        <v>597</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="10"/>
-        <v>2131</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1367</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="10"/>
-        <v>2220</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1647</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="12"/>
+        <v>663</v>
       </c>
       <c r="H19">
-        <f t="shared" ca="1" si="11"/>
-        <v>45846</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>32090</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -1187,32 +1274,36 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" ca="1" si="6"/>
-        <v>133794</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>132595</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="7"/>
-        <v>15917</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>15253</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="8"/>
-        <v>23439</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>30078</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="9"/>
-        <v>71</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>610</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="10"/>
-        <v>1227</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1916</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="10"/>
-        <v>1380</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1009</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="12"/>
+        <v>2658</v>
       </c>
       <c r="H20">
-        <f t="shared" ca="1" si="11"/>
-        <v>56844</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>83668</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1226,32 +1317,36 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" ca="1" si="6"/>
-        <v>106022</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>102657</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="7"/>
-        <v>19704</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>21067</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="8"/>
-        <v>34397</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>44819</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="9"/>
-        <v>536</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>468</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="10"/>
-        <v>1880</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2166</v>
       </c>
       <c r="F21">
-        <f t="shared" ca="1" si="10"/>
-        <v>1546</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1490</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="12"/>
+        <v>3415</v>
       </c>
       <c r="H21">
-        <f t="shared" ca="1" si="11"/>
-        <v>52736</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>25477</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1266,31 +1361,35 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <f ca="1">RANDBETWEEN(175122,233496)</f>
-        <v>203906</v>
+        <v>194995</v>
       </c>
       <c r="B22">
         <f ca="1">RANDBETWEEN(50000,200000)</f>
-        <v>133207</v>
+        <v>177470</v>
       </c>
       <c r="C22">
         <f ca="1">RANDBETWEEN(100000,500000)</f>
-        <v>416623</v>
+        <v>133750</v>
       </c>
       <c r="D22">
         <f ca="1">RANDBETWEEN(0,450)</f>
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="E22">
         <f ca="1">RANDBETWEEN(2700,3600)</f>
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="F22">
         <f ca="1">RANDBETWEEN(2700,3600)</f>
-        <v>3096</v>
+        <v>3402</v>
+      </c>
+      <c r="G22">
+        <f ca="1">RANDBETWEEN(5000,20000)</f>
+        <v>6837</v>
       </c>
       <c r="H22">
         <f ca="1">RANDBETWEEN(200000,1000000)</f>
-        <v>287909</v>
+        <v>732079</v>
       </c>
       <c r="I22">
         <v>3</v>
@@ -1304,32 +1403,36 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f t="shared" ref="A23:A31" ca="1" si="12">RANDBETWEEN(175122,233496)</f>
-        <v>195417</v>
+        <f t="shared" ref="A23:A31" ca="1" si="14">RANDBETWEEN(175122,233496)</f>
+        <v>204608</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:B31" ca="1" si="13">RANDBETWEEN(50000,200000)</f>
-        <v>106045</v>
+        <f t="shared" ref="B23:B31" ca="1" si="15">RANDBETWEEN(50000,200000)</f>
+        <v>122268</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:C31" ca="1" si="14">RANDBETWEEN(100000,500000)</f>
-        <v>173371</v>
+        <f t="shared" ref="C23:C31" ca="1" si="16">RANDBETWEEN(100000,500000)</f>
+        <v>358243</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:D31" ca="1" si="15">RANDBETWEEN(0,450)</f>
-        <v>124</v>
+        <f t="shared" ref="D23:D31" ca="1" si="17">RANDBETWEEN(0,450)</f>
+        <v>400</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23:F31" ca="1" si="16">RANDBETWEEN(2700,3600)</f>
-        <v>3201</v>
+        <f t="shared" ref="E23:F31" ca="1" si="18">RANDBETWEEN(2700,3600)</f>
+        <v>3071</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="16"/>
-        <v>3235</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>2975</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G31" ca="1" si="19">RANDBETWEEN(5000,20000)</f>
+        <v>14891</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H31" ca="1" si="17">RANDBETWEEN(200000,1000000)</f>
-        <v>537494</v>
+        <f t="shared" ref="H23:H31" ca="1" si="20">RANDBETWEEN(200000,1000000)</f>
+        <v>652174</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -1343,32 +1446,36 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" ca="1" si="12"/>
-        <v>205721</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>211425</v>
       </c>
       <c r="B24">
-        <f t="shared" ca="1" si="13"/>
-        <v>120255</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>98454</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="14"/>
-        <v>390494</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>375675</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="15"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>63</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="16"/>
-        <v>2971</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>3154</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="16"/>
-        <v>3233</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>3099</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="19"/>
+        <v>6732</v>
       </c>
       <c r="H24">
-        <f t="shared" ca="1" si="17"/>
-        <v>387474</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>525144</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -1382,32 +1489,36 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" ca="1" si="12"/>
-        <v>214412</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>232876</v>
       </c>
       <c r="B25">
-        <f t="shared" ca="1" si="13"/>
-        <v>57154</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>165063</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="14"/>
-        <v>256472</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>269093</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="15"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>98</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="16"/>
-        <v>3118</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>3570</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="16"/>
-        <v>2824</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>3448</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="19"/>
+        <v>9186</v>
       </c>
       <c r="H25">
-        <f t="shared" ca="1" si="17"/>
-        <v>324350</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>613040</v>
       </c>
       <c r="I25">
         <v>3</v>
@@ -1421,32 +1532,36 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f t="shared" ca="1" si="12"/>
-        <v>203400</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>183037</v>
       </c>
       <c r="B26">
-        <f t="shared" ca="1" si="13"/>
-        <v>138277</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>198228</v>
       </c>
       <c r="C26">
-        <f t="shared" ca="1" si="14"/>
-        <v>347096</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>403704</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="15"/>
-        <v>295</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>275</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="16"/>
-        <v>3487</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>3593</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="16"/>
-        <v>3168</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>3139</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="19"/>
+        <v>6024</v>
       </c>
       <c r="H26">
-        <f t="shared" ca="1" si="17"/>
-        <v>305783</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>963079</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -1460,32 +1575,36 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f t="shared" ca="1" si="12"/>
-        <v>230875</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>182955</v>
       </c>
       <c r="B27">
-        <f t="shared" ca="1" si="13"/>
-        <v>108827</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>83578</v>
       </c>
       <c r="C27">
-        <f t="shared" ca="1" si="14"/>
-        <v>350100</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>436497</v>
       </c>
       <c r="D27">
-        <f t="shared" ca="1" si="15"/>
-        <v>444</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>391</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="16"/>
-        <v>3321</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>3404</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="16"/>
-        <v>2888</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>3397</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="19"/>
+        <v>8740</v>
       </c>
       <c r="H27">
-        <f t="shared" ca="1" si="17"/>
-        <v>812152</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>529891</v>
       </c>
       <c r="I27">
         <v>3</v>
@@ -1499,32 +1618,36 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f t="shared" ca="1" si="12"/>
-        <v>227704</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>187949</v>
       </c>
       <c r="B28">
-        <f t="shared" ca="1" si="13"/>
-        <v>165034</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>107682</v>
       </c>
       <c r="C28">
-        <f t="shared" ca="1" si="14"/>
-        <v>497154</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>404824</v>
       </c>
       <c r="D28">
-        <f t="shared" ca="1" si="15"/>
-        <v>373</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>364</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="16"/>
-        <v>3442</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>3235</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="16"/>
-        <v>2948</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>2979</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="19"/>
+        <v>7712</v>
       </c>
       <c r="H28">
-        <f t="shared" ca="1" si="17"/>
-        <v>250998</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>709376</v>
       </c>
       <c r="I28">
         <v>3</v>
@@ -1538,32 +1661,36 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" ca="1" si="12"/>
-        <v>209902</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>215791</v>
       </c>
       <c r="B29">
-        <f t="shared" ca="1" si="13"/>
-        <v>183100</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>187355</v>
       </c>
       <c r="C29">
-        <f t="shared" ca="1" si="14"/>
-        <v>155000</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>356600</v>
       </c>
       <c r="D29">
-        <f t="shared" ca="1" si="15"/>
-        <v>176</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>115</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="16"/>
-        <v>3361</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>2741</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="16"/>
-        <v>3544</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>2802</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="19"/>
+        <v>15398</v>
       </c>
       <c r="H29">
-        <f t="shared" ca="1" si="17"/>
-        <v>319691</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>783526</v>
       </c>
       <c r="I29">
         <v>3</v>
@@ -1577,32 +1704,36 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f t="shared" ca="1" si="12"/>
-        <v>230091</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>200524</v>
       </c>
       <c r="B30">
-        <f t="shared" ca="1" si="13"/>
-        <v>77714</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>103025</v>
       </c>
       <c r="C30">
-        <f t="shared" ca="1" si="14"/>
-        <v>486264</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>309184</v>
       </c>
       <c r="D30">
-        <f t="shared" ca="1" si="15"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>154</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="16"/>
-        <v>2860</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>3490</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="16"/>
-        <v>2786</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>2719</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="19"/>
+        <v>9465</v>
       </c>
       <c r="H30">
-        <f t="shared" ca="1" si="17"/>
-        <v>592396</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>490593</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -1616,32 +1747,36 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f t="shared" ca="1" si="12"/>
-        <v>222525</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>210459</v>
       </c>
       <c r="B31">
-        <f t="shared" ca="1" si="13"/>
-        <v>109754</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>181142</v>
       </c>
       <c r="C31">
-        <f t="shared" ca="1" si="14"/>
-        <v>233650</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>328127</v>
       </c>
       <c r="D31">
-        <f t="shared" ca="1" si="15"/>
-        <v>369</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>417</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="16"/>
-        <v>2843</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>3440</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="16"/>
-        <v>2899</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>3456</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="19"/>
+        <v>12602</v>
       </c>
       <c r="H31">
-        <f t="shared" ca="1" si="17"/>
-        <v>706177</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>877355</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -1654,6 +1789,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{5B8AEFD7-B892-4F81-9656-37F3AA11CC58}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>